--- a/Senai_HBoards_Sprint1_DB/Tabela_Hboards.xlsx
+++ b/Senai_HBoards_Sprint1_DB/Tabela_Hboards.xlsx
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,11 +194,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,36 +818,36 @@
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G26" s="3">
-        <v>3</v>
+      <c r="G26" s="8">
+        <v>4</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G27" s="3">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G28" s="3">
+      <c r="G28" s="9">
         <v>6</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G29" s="3">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
